--- a/result/RQ2result.xlsx
+++ b/result/RQ2result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2151633-11BD-482A-B744-A12FD11B84A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEFCF93-8725-4445-AFB3-994C505DDE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>seq2seqRouge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,46 @@
   </si>
   <si>
     <t>seq2seqBLEU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +161,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>seq2se2-BLEU</c:v>
+            <c:v>seq2seq-BLEU</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -148,43 +188,42 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>G1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>G2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>G3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>G4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>G5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>G6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>G7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>G8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>G9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>G10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -233,10 +272,124 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>transformer-BLEU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>G1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>G4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>G5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>G6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>G10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.396149575500088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34931859311687502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33713047820071201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33491280454454198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31141370080238101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32022110591485198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29003740721574001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27686036323927099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23541482264972799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2393502599057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BBD7-401A-9B7B-90D5FDB3CCDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>seq2seq-ROUGE_L</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -263,43 +416,42 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>G1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>G2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>G3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>G4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>G5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>G6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>G7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>G8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>G9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>G10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -344,121 +496,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BBD7-401A-9B7B-90D5FDB3CCDE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>seq2seq-ROUGE_L</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.396149575500088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34931859311687502</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33713047820071201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33491280454454198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.31141370080238101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32022110591485198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29003740721574001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.27686036323927099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23541482264972799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2393502599057</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BBD7-401A-9B7B-90D5FDB3CCDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -493,43 +530,42 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>G1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>G2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>G3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>G4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>G5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>G6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>G7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>G8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>G9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>G10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -618,9 +654,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
-                  <a:t>different test sets</a:t>
+                  <a:t>Different Test Groups</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -713,6 +748,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+                  <a:t>BLEU &amp; ROUGE_L</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1384,16 +1475,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1418,48 +1509,227 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95034</xdr:rowOff>
+      <xdr:colOff>317828</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165905</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB5FC87-E41C-4FA5-8814-D63444273898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7CE9D0-27C2-4824-9CF9-8A33386A76D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5836920" y="1531620"/>
-          <a:ext cx="4754880" cy="4171734"/>
+          <a:off x="5608320" y="4442460"/>
+          <a:ext cx="4866968" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>1.51</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>)  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>2.70</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>)  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>3.25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>)  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>3.68</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>)  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>4.07</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>)  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>4.4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>5)  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>4.85</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>)  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>5.27</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>)  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>5.83</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>)  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>7.03</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1731,7 +2001,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1760,8 +2030,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.385359396033986</v>
@@ -1777,8 +2047,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.33296300306433202</v>
@@ -1794,8 +2064,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.308680805343853</v>
@@ -1811,8 +2081,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.31116300525782298</v>
@@ -1828,8 +2098,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.287829102867381</v>
@@ -1845,8 +2115,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.27372787679121202</v>
@@ -1862,8 +2132,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.25193145015631901</v>
@@ -1879,8 +2149,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.25522206606546699</v>
@@ -1896,8 +2166,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.21727474059475499</v>
@@ -1913,8 +2183,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.21725688223856901</v>

--- a/result/RQ2result.xlsx
+++ b/result/RQ2result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEFCF93-8725-4445-AFB3-994C505DDE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F29B1B-1F96-40F7-AD31-A556233AF48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,23 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>seq2seqRouge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transformerBLEU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transformerRouge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq2seqBLEU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>G1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +59,14 @@
   </si>
   <si>
     <t>G10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq2seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,358 +136,206 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>seq2seq-BLEU</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="43000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>G1</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>G2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>G3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>G4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>G5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>G6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>G7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>G8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>G9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>G10</c:v>
+                  <c:v>Transformer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$22:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.385359396033986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33296300306433202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.308680805343853</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31116300525782298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.287829102867381</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27372787679121202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25193145015631901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25522206606546699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21727474059475499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21725688223856901</c:v>
+                  <c:v>0.396149575500088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BBD7-401A-9B7B-90D5FDB3CCDE}"/>
+              <c16:uniqueId val="{00000000-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="56000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.33296300306433202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34931859311687502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>transformer-BLEU</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="69000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>G1</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>G2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>G3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>G4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>G5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>G6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>G7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>G8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>G9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>G10</c:v>
+                  <c:v>Transformer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$B$24:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.396149575500088</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.308680805343853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34931859311687502</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0.33713047820071201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33491280454454198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.31141370080238101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32022110591485198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29003740721574001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.27686036323927099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23541482264972799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2393502599057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BBD7-401A-9B7B-90D5FDB3CCDE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>seq2seq-ROUGE_L</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>G1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>G2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>G3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>G4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>G5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>G6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>G7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>G8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>G9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>G10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.54332266517765604</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50781735271217499</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.47207657255436603</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45776684017036701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.43546286822457703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41266971883201398</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.37468395793023701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37515534252377197</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.32403035171219902</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27881694159082099</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BBD7-401A-9B7B-90D5FDB3CCDE}"/>
+              <c16:uniqueId val="{00000002-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -503,113 +343,440 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>transformer-ROUGE_L</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>G1</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>G2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>G3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>G4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>G5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>G6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>G7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>G8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>G9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>G10</c:v>
+                  <c:v>Transformer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$B$25:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.55692431036286505</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.31116300525782298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51124156027064704</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48536813578896498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47473057630715099</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45492475024911699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.44812260528129499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40991237150930898</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39466212955660301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.33538399515109601</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.30714838031237501</c:v>
+                  <c:v>0.33491280454454198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BBD7-401A-9B7B-90D5FDB3CCDE}"/>
+              <c16:uniqueId val="{00000003-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.287829102867381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31141370080238101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="93000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.27372787679121202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32022110591485198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25193145015631901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29003740721574001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="68000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25522206606546699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27686036323927099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.21727474059475499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23541482264972799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="42000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>seq2seq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.21725688223856901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2393502599057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-EDE4-4324-A2D1-9C4B9AD7F71A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -621,73 +788,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1009597135"/>
-        <c:axId val="927002815"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:axId val="1701929376"/>
+        <c:axId val="1697891680"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1009597135"/>
+        <c:axId val="1701929376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
-                  <a:t>Different Test Groups</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -695,7 +806,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -705,7 +821,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -720,7 +836,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="927002815"/>
+        <c:crossAx val="1697891680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -728,7 +844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="927002815"/>
+        <c:axId val="1697891680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -748,62 +864,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
-                  <a:t>BLEU &amp; ROUGE_L</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -820,7 +880,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -835,7 +895,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1009597135"/>
+        <c:crossAx val="1701929376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -848,7 +908,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -862,7 +922,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -916,47 +976,13 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1064,11 +1090,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1079,11 +1100,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1115,9 +1131,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1475,23 +1488,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB07378F-94F1-4C65-86AF-205E007AD9EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10FD6F5-C93F-49AF-9405-65E2591DD792}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,229 +1520,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>317828</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165905</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7CE9D0-27C2-4824-9CF9-8A33386A76D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5608320" y="4442460"/>
-          <a:ext cx="4866968" cy="280205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>1.51</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>)  (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>2.70</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>)  (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>3.25</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>)  (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>3.68</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>)  (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>4.07</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>)  (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>4.4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>5)  (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>4.85</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>)  (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>5.27</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>)  (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>5.83</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>)  (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-            <a:t>7.03</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1998,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A21:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2013,190 +1803,125 @@
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0.385359396033986</v>
+      </c>
+      <c r="C22">
+        <v>0.396149575500088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0.33296300306433202</v>
+      </c>
+      <c r="C23">
+        <v>0.34931859311687502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0.308680805343853</v>
+      </c>
+      <c r="C24">
+        <v>0.33713047820071201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
+      <c r="B25">
+        <v>0.31116300525782298</v>
+      </c>
+      <c r="C25">
+        <v>0.33491280454454198</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.385359396033986</v>
-      </c>
-      <c r="C2">
-        <v>0.54332266517765604</v>
-      </c>
-      <c r="D2">
-        <v>0.396149575500088</v>
-      </c>
-      <c r="E2">
-        <v>0.55692431036286505</v>
+      <c r="B26">
+        <v>0.287829102867381</v>
+      </c>
+      <c r="C26">
+        <v>0.31141370080238101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.33296300306433202</v>
-      </c>
-      <c r="C3">
-        <v>0.50781735271217499</v>
-      </c>
-      <c r="D3">
-        <v>0.34931859311687502</v>
-      </c>
-      <c r="E3">
-        <v>0.51124156027064704</v>
+      <c r="B27">
+        <v>0.27372787679121202</v>
+      </c>
+      <c r="C27">
+        <v>0.32022110591485198</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.308680805343853</v>
-      </c>
-      <c r="C4">
-        <v>0.47207657255436603</v>
-      </c>
-      <c r="D4">
-        <v>0.33713047820071201</v>
-      </c>
-      <c r="E4">
-        <v>0.48536813578896498</v>
+      <c r="B28">
+        <v>0.25193145015631901</v>
+      </c>
+      <c r="C28">
+        <v>0.29003740721574001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.31116300525782298</v>
-      </c>
-      <c r="C5">
-        <v>0.45776684017036701</v>
-      </c>
-      <c r="D5">
-        <v>0.33491280454454198</v>
-      </c>
-      <c r="E5">
-        <v>0.47473057630715099</v>
+      <c r="B29">
+        <v>0.25522206606546699</v>
+      </c>
+      <c r="C29">
+        <v>0.27686036323927099</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0.287829102867381</v>
-      </c>
-      <c r="C6">
-        <v>0.43546286822457703</v>
-      </c>
-      <c r="D6">
-        <v>0.31141370080238101</v>
-      </c>
-      <c r="E6">
-        <v>0.45492475024911699</v>
+      <c r="B30">
+        <v>0.21727474059475499</v>
+      </c>
+      <c r="C30">
+        <v>0.23541482264972799</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0.27372787679121202</v>
-      </c>
-      <c r="C7">
-        <v>0.41266971883201398</v>
-      </c>
-      <c r="D7">
-        <v>0.32022110591485198</v>
-      </c>
-      <c r="E7">
-        <v>0.44812260528129499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.25193145015631901</v>
-      </c>
-      <c r="C8">
-        <v>0.37468395793023701</v>
-      </c>
-      <c r="D8">
-        <v>0.29003740721574001</v>
-      </c>
-      <c r="E8">
-        <v>0.40991237150930898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.25522206606546699</v>
-      </c>
-      <c r="C9">
-        <v>0.37515534252377197</v>
-      </c>
-      <c r="D9">
-        <v>0.27686036323927099</v>
-      </c>
-      <c r="E9">
-        <v>0.39466212955660301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.21727474059475499</v>
-      </c>
-      <c r="C10">
-        <v>0.32403035171219902</v>
-      </c>
-      <c r="D10">
-        <v>0.23541482264972799</v>
-      </c>
-      <c r="E10">
-        <v>0.33538399515109601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="B31">
         <v>0.21725688223856901</v>
       </c>
-      <c r="C11">
-        <v>0.27881694159082099</v>
-      </c>
-      <c r="D11">
+      <c r="C31">
         <v>0.2393502599057</v>
-      </c>
-      <c r="E11">
-        <v>0.30714838031237501</v>
       </c>
     </row>
   </sheetData>
